--- a/year2014/F#/Graphs/Timestamps/results/sheet.xlsx
+++ b/year2014/F#/Graphs/Timestamps/results/sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>edges</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t>theoretic</t>
   </si>
 </sst>
 </file>
@@ -142,8 +145,165 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0.27702189362218493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32829664352419929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38906197896491423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46107453871954573</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54641610270175822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64755377323792662</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76741129546021147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90945357858881104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0777868614925521</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2772774181706394</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5136922347609534</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7938657248456138</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.125897302554419</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.519385525021451</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9857055729177837</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5383380906248583</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1932588923467611</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.9694008000066523</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8892009639992002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.979249489057648</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2710581160799475</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.8019711814040456</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.616245188059654</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.766328197854431</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.314376029686546</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.334049095204168</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.912641815756096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.153606179026326</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.179542387758801</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38.135743055941163</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45.194393410081545</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53.559548917377469</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63.473034236876131</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75.221434023849355</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>89.14437768152311</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>105.64435756045914</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>125.19836443566767</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>148.37167662641954</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>175.83420138245191</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>208.37984094263024</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>246.94944311106755</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>292.6579998189759</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>346.8268799436911</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>411.02202818949229</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>487.09923430511446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -591,7 +751,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -754,11 +914,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547136320"/>
-        <c:axId val="547138280"/>
+        <c:axId val="386868816"/>
+        <c:axId val="386873128"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="547136320"/>
+        <c:axId val="386868816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +1017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547138280"/>
+        <c:crossAx val="386873128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -865,7 +1025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="547138280"/>
+        <c:axId val="386873128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +1132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547136320"/>
+        <c:crossAx val="386868816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1880,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,7 +2056,7 @@
     <col min="20" max="20" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1919,8 +2079,11 @@
       <c r="T1" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>6</v>
       </c>
@@ -1974,8 +2137,12 @@
         <f>AVERAGE(N2:S2)</f>
         <v>0.26501666666666668</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X2">
+        <f>2^(0.245*A2)/10</f>
+        <v>0.27702189362218493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>7</v>
       </c>
@@ -2029,8 +2196,12 @@
         <f t="shared" ref="T3:T66" si="1">AVERAGE(N3:S3)</f>
         <v>24.140266666666665</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X3" s="7">
+        <f t="shared" ref="X3:X66" si="2">2^(0.245*A3)/10</f>
+        <v>0.32829664352419929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>8</v>
       </c>
@@ -2084,8 +2255,12 @@
         <f t="shared" si="1"/>
         <v>2.5808</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.38906197896491423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>9</v>
       </c>
@@ -2139,8 +2314,12 @@
         <f t="shared" si="1"/>
         <v>10.833233333333334</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.46107453871954573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>10</v>
       </c>
@@ -2194,8 +2373,12 @@
         <f t="shared" si="1"/>
         <v>0.93788333333333351</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X6" s="7">
+        <f t="shared" si="2"/>
+        <v>0.54641610270175822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>11</v>
       </c>
@@ -2249,8 +2432,12 @@
         <f t="shared" si="1"/>
         <v>4.1276999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.64755377323792662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>12</v>
       </c>
@@ -2304,8 +2491,12 @@
         <f t="shared" si="1"/>
         <v>4.5941166666666673</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.76741129546021147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>13</v>
       </c>
@@ -2359,8 +2550,12 @@
         <f t="shared" si="1"/>
         <v>6.0299666666666667</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X9" s="7">
+        <f t="shared" si="2"/>
+        <v>0.90945357858881104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>14</v>
       </c>
@@ -2414,8 +2609,12 @@
         <f t="shared" si="1"/>
         <v>1.5202</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X10" s="7">
+        <f t="shared" si="2"/>
+        <v>1.0777868614925521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>15</v>
       </c>
@@ -2469,8 +2668,12 @@
         <f t="shared" si="1"/>
         <v>10.063316666666667</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X11" s="7">
+        <f t="shared" si="2"/>
+        <v>1.2772774181706394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>16</v>
       </c>
@@ -2524,8 +2727,12 @@
         <f t="shared" si="1"/>
         <v>1.9637166666666666</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X12" s="7">
+        <f t="shared" si="2"/>
+        <v>1.5136922347609534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>17</v>
       </c>
@@ -2579,8 +2786,12 @@
         <f t="shared" si="1"/>
         <v>5.0328833333333334</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X13" s="7">
+        <f t="shared" si="2"/>
+        <v>1.7938657248456138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>18</v>
       </c>
@@ -2634,8 +2845,12 @@
         <f t="shared" si="1"/>
         <v>3.8668499999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X14" s="7">
+        <f t="shared" si="2"/>
+        <v>2.125897302554419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>19</v>
       </c>
@@ -2689,8 +2904,12 @@
         <f t="shared" si="1"/>
         <v>6.3866833333333339</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X15" s="7">
+        <f t="shared" si="2"/>
+        <v>2.519385525021451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>20</v>
       </c>
@@ -2744,8 +2963,12 @@
         <f t="shared" si="1"/>
         <v>4.6829833333333335</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X16" s="7">
+        <f t="shared" si="2"/>
+        <v>2.9857055729177837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>21</v>
       </c>
@@ -2799,8 +3022,12 @@
         <f t="shared" si="1"/>
         <v>6.8729000000000005</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X17" s="7">
+        <f t="shared" si="2"/>
+        <v>3.5383380906248583</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>22</v>
       </c>
@@ -2854,8 +3081,12 @@
         <f t="shared" si="1"/>
         <v>3.9844500000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X18" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1932588923467611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>23</v>
       </c>
@@ -2909,8 +3140,12 @@
         <f t="shared" si="1"/>
         <v>4.3650500000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X19" s="7">
+        <f t="shared" si="2"/>
+        <v>4.9694008000066523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>24</v>
       </c>
@@ -2964,8 +3199,12 @@
         <f t="shared" si="1"/>
         <v>5.2998500000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X20" s="7">
+        <f t="shared" si="2"/>
+        <v>5.8892009639992002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>25</v>
       </c>
@@ -3019,8 +3258,12 @@
         <f t="shared" si="1"/>
         <v>7.8498666666666663</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X21" s="7">
+        <f t="shared" si="2"/>
+        <v>6.979249489057648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>26</v>
       </c>
@@ -3074,8 +3317,12 @@
         <f t="shared" si="1"/>
         <v>11.384383333333334</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X22" s="7">
+        <f t="shared" si="2"/>
+        <v>8.2710581160799475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>27</v>
       </c>
@@ -3129,8 +3376,12 @@
         <f t="shared" si="1"/>
         <v>12.109516666666666</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X23" s="7">
+        <f t="shared" si="2"/>
+        <v>9.8019711814040456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>28</v>
       </c>
@@ -3184,8 +3435,12 @@
         <f t="shared" si="1"/>
         <v>12.48485</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X24" s="7">
+        <f t="shared" si="2"/>
+        <v>11.616245188059654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>29</v>
       </c>
@@ -3239,8 +3494,12 @@
         <f t="shared" si="1"/>
         <v>10.105633333333333</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X25" s="7">
+        <f t="shared" si="2"/>
+        <v>13.766328197854431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>30</v>
       </c>
@@ -3294,8 +3553,12 @@
         <f t="shared" si="1"/>
         <v>16.021233333333331</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X26" s="7">
+        <f t="shared" si="2"/>
+        <v>16.314376029686546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>31</v>
       </c>
@@ -3349,8 +3612,12 @@
         <f t="shared" si="1"/>
         <v>21.600750000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X27" s="7">
+        <f t="shared" si="2"/>
+        <v>19.334049095204168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>32</v>
       </c>
@@ -3404,8 +3671,12 @@
         <f t="shared" si="1"/>
         <v>19.818383333333333</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X28" s="7">
+        <f t="shared" si="2"/>
+        <v>22.912641815756096</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>33</v>
       </c>
@@ -3459,8 +3730,12 @@
         <f t="shared" si="1"/>
         <v>17.976900000000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X29" s="7">
+        <f t="shared" si="2"/>
+        <v>27.153606179026326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>34</v>
       </c>
@@ -3514,8 +3789,12 @@
         <f t="shared" si="1"/>
         <v>29.708716666666664</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X30" s="7">
+        <f t="shared" si="2"/>
+        <v>32.179542387758801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>35</v>
       </c>
@@ -3569,8 +3848,12 @@
         <f t="shared" si="1"/>
         <v>36.839833333333338</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X31" s="7">
+        <f t="shared" si="2"/>
+        <v>38.135743055941163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>36</v>
       </c>
@@ -3624,8 +3907,12 @@
         <f t="shared" si="1"/>
         <v>25.78831666666667</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X32" s="7">
+        <f t="shared" si="2"/>
+        <v>45.194393410081545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>37</v>
       </c>
@@ -3679,8 +3966,12 @@
         <f t="shared" si="1"/>
         <v>35.308416666666666</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X33" s="7">
+        <f t="shared" si="2"/>
+        <v>53.559548917377469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>38</v>
       </c>
@@ -3734,8 +4025,12 @@
         <f t="shared" si="1"/>
         <v>46.373550000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X34" s="7">
+        <f t="shared" si="2"/>
+        <v>63.473034236876131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>39</v>
       </c>
@@ -3789,8 +4084,12 @@
         <f t="shared" si="1"/>
         <v>51.022150000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X35" s="7">
+        <f t="shared" si="2"/>
+        <v>75.221434023849355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>40</v>
       </c>
@@ -3827,8 +4126,12 @@
         <f t="shared" si="1"/>
         <v>70.667900000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X36" s="7">
+        <f t="shared" si="2"/>
+        <v>89.14437768152311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>41</v>
       </c>
@@ -3865,8 +4168,12 @@
         <f t="shared" si="1"/>
         <v>66.727099999999993</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X37" s="7">
+        <f t="shared" si="2"/>
+        <v>105.64435756045914</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>42</v>
       </c>
@@ -3903,8 +4210,12 @@
         <f t="shared" si="1"/>
         <v>65.36063333333334</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X38" s="7">
+        <f t="shared" si="2"/>
+        <v>125.19836443566767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>43</v>
       </c>
@@ -3941,8 +4252,12 @@
         <f t="shared" si="1"/>
         <v>48.911633333333334</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X39" s="7">
+        <f t="shared" si="2"/>
+        <v>148.37167662641954</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>44</v>
       </c>
@@ -3979,8 +4294,12 @@
         <f t="shared" si="1"/>
         <v>56.824600000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X40" s="7">
+        <f t="shared" si="2"/>
+        <v>175.83420138245191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>45</v>
       </c>
@@ -4017,8 +4336,12 @@
         <f t="shared" si="1"/>
         <v>75.6447</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X41" s="7">
+        <f t="shared" si="2"/>
+        <v>208.37984094263024</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>46</v>
       </c>
@@ -4055,8 +4378,12 @@
         <f t="shared" si="1"/>
         <v>95.414466666666669</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X42" s="7">
+        <f t="shared" si="2"/>
+        <v>246.94944311106755</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>47</v>
       </c>
@@ -4093,8 +4420,12 @@
         <f t="shared" si="1"/>
         <v>71.484533333333331</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X43" s="7">
+        <f t="shared" si="2"/>
+        <v>292.6579998189759</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>48</v>
       </c>
@@ -4131,8 +4462,12 @@
         <f t="shared" si="1"/>
         <v>121.3895</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X44" s="7">
+        <f t="shared" si="2"/>
+        <v>346.8268799436911</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>49</v>
       </c>
@@ -4169,8 +4504,12 @@
         <f t="shared" si="1"/>
         <v>97.293333333333351</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X45" s="7">
+        <f t="shared" si="2"/>
+        <v>411.02202818949229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>50</v>
       </c>
@@ -4207,8 +4546,12 @@
         <f t="shared" si="1"/>
         <v>125.49393333333335</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X46" s="7">
+        <f t="shared" si="2"/>
+        <v>487.09923430511446</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>51</v>
       </c>
@@ -4245,8 +4588,12 @@
         <f t="shared" si="1"/>
         <v>118.48610000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X47" s="7">
+        <f t="shared" si="2"/>
+        <v>577.25778130617095</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>52</v>
       </c>
@@ -4283,8 +4630,12 @@
         <f t="shared" si="1"/>
         <v>150.06103333333334</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X48" s="7">
+        <f t="shared" si="2"/>
+        <v>684.10402359571981</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>53</v>
       </c>
@@ -4321,8 +4672,12 @@
         <f t="shared" si="1"/>
         <v>165.25890000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X49" s="7">
+        <f t="shared" si="2"/>
+        <v>810.72673293533694</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>54</v>
       </c>
@@ -4359,8 +4714,12 @@
         <f t="shared" si="1"/>
         <v>225.96833333333333</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X50" s="7">
+        <f t="shared" si="2"/>
+        <v>960.78639041075439</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>55</v>
       </c>
@@ -4397,8 +4756,12 @@
         <f t="shared" si="1"/>
         <v>238.74936666666667</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X51" s="7">
+        <f t="shared" si="2"/>
+        <v>1138.6210056948416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>56</v>
       </c>
@@ -4435,8 +4798,12 @@
         <f t="shared" si="1"/>
         <v>288.99556666666666</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X52" s="7">
+        <f t="shared" si="2"/>
+        <v>1349.3715226911904</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>57</v>
       </c>
@@ -4473,8 +4840,12 @@
         <f t="shared" si="1"/>
         <v>197.97346666666667</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X53" s="7">
+        <f t="shared" si="2"/>
+        <v>1599.1304368557649</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>58</v>
       </c>
@@ -4511,8 +4882,12 @@
         <f t="shared" si="1"/>
         <v>526.37133333333338</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X54" s="7">
+        <f t="shared" si="2"/>
+        <v>1895.1179205104206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>59</v>
       </c>
@@ -4549,8 +4924,12 @@
         <f t="shared" si="1"/>
         <v>345.46216666666669</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X55" s="7">
+        <f t="shared" si="2"/>
+        <v>2245.8905476787472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>60</v>
       </c>
@@ -4587,8 +4966,12 @@
         <f t="shared" si="1"/>
         <v>379.4427</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X56" s="7">
+        <f t="shared" si="2"/>
+        <v>2661.5886523801087</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>61</v>
       </c>
@@ -4625,8 +5008,12 @@
         <f t="shared" si="1"/>
         <v>433.84736666666669</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X57" s="7">
+        <f t="shared" si="2"/>
+        <v>3154.2294711558197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>62</v>
       </c>
@@ -4663,8 +5050,12 @@
         <f t="shared" si="1"/>
         <v>555.89070000000004</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X58" s="7">
+        <f t="shared" si="2"/>
+        <v>3738.0545441576514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>63</v>
       </c>
@@ -4701,8 +5092,12 @@
         <f t="shared" si="1"/>
         <v>625.98263333333341</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X59" s="7">
+        <f t="shared" si="2"/>
+        <v>4429.9414176665632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>64</v>
       </c>
@@ -4739,8 +5134,12 @@
         <f t="shared" si="1"/>
         <v>768.13473333333332</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X60" s="7">
+        <f t="shared" si="2"/>
+        <v>5249.8915497713469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>65</v>
       </c>
@@ -4777,8 +5176,12 @@
         <f t="shared" si="1"/>
         <v>817.72253333333344</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X61" s="7">
+        <f t="shared" si="2"/>
+        <v>6221.6085238613105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>66</v>
       </c>
@@ -4815,8 +5218,12 @@
         <f t="shared" si="1"/>
         <v>1109.4176666666669</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X62" s="7">
+        <f t="shared" si="2"/>
+        <v>7373.1832852565667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>67</v>
       </c>
@@ -4853,8 +5260,12 @@
         <f t="shared" si="1"/>
         <v>734.94050000000004</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X63" s="7">
+        <f t="shared" si="2"/>
+        <v>8737.9062101848758</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>68</v>
       </c>
@@ -4891,8 +5302,12 @@
         <f t="shared" si="1"/>
         <v>826.29903333333334</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X64" s="7">
+        <f t="shared" si="2"/>
+        <v>10355.229482855651</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>69</v>
       </c>
@@ -4929,8 +5344,12 @@
         <f t="shared" si="1"/>
         <v>1351.9866000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X65" s="7">
+        <f t="shared" si="2"/>
+        <v>12271.907601573392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>70</v>
       </c>
@@ -4967,8 +5386,12 @@
         <f t="shared" si="1"/>
         <v>1535.8186333333333</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X66" s="7">
+        <f t="shared" si="2"/>
+        <v>14543.348984287648</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>71</v>
       </c>
@@ -4986,7 +5409,7 @@
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="10">
-        <f t="shared" ref="I67:I95" si="2">AVERAGE(C67:H67)</f>
+        <f t="shared" ref="I67:I95" si="3">AVERAGE(C67:H67)</f>
         <v>1849.1215333333337</v>
       </c>
       <c r="M67" s="8">
@@ -5002,11 +5425,15 @@
         <v>1071.1594</v>
       </c>
       <c r="T67" s="10">
-        <f t="shared" ref="T67:T95" si="3">AVERAGE(N67:S67)</f>
+        <f t="shared" ref="T67:T95" si="4">AVERAGE(N67:S67)</f>
         <v>1343.1127333333334</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X67" s="7">
+        <f t="shared" ref="X67:X95" si="5">2^(0.245*A67)/10</f>
+        <v>17235.217746559891</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>72</v>
       </c>
@@ -5024,7 +5451,7 @@
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2029.1042666666669</v>
       </c>
       <c r="M68" s="8">
@@ -5040,11 +5467,15 @@
         <v>1471.7014000000001</v>
       </c>
       <c r="T68" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1583.7172666666668</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X68" s="7">
+        <f t="shared" si="5"/>
+        <v>20425.331957052225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>73</v>
       </c>
@@ -5062,7 +5493,7 @@
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2708.8741333333332</v>
       </c>
       <c r="M69" s="8">
@@ -5078,11 +5509,15 @@
         <v>1568.9718</v>
       </c>
       <c r="T69" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1918.3873666666668</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X69" s="7">
+        <f t="shared" si="5"/>
+        <v>24205.913246384625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>74</v>
       </c>
@@ -5100,7 +5535,7 @@
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3253.2512666666667</v>
       </c>
       <c r="M70" s="8">
@@ -5116,11 +5551,15 @@
         <v>2366.7091</v>
       </c>
       <c r="T70" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2002.5603333333336</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X70" s="7">
+        <f t="shared" si="5"/>
+        <v>28686.252802329498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>75</v>
       </c>
@@ -5138,7 +5577,7 @@
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3607.9189000000006</v>
       </c>
       <c r="M71" s="8">
@@ -5154,11 +5593,15 @@
         <v>2392.4301</v>
       </c>
       <c r="T71" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1896.4435333333331</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X71" s="7">
+        <f t="shared" si="5"/>
+        <v>33995.870821443386</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>76</v>
       </c>
@@ -5176,7 +5619,7 @@
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3247.849466666667</v>
       </c>
       <c r="M72" s="8">
@@ -5192,11 +5635,15 @@
         <v>2257.2797</v>
       </c>
       <c r="T72" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2360.3342333333335</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X72" s="7">
+        <f t="shared" si="5"/>
+        <v>40288.260752356488</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>77</v>
       </c>
@@ -5214,7 +5661,7 @@
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3561.8649333333337</v>
       </c>
       <c r="M73" s="8">
@@ -5230,11 +5677,15 @@
         <v>1535.4003</v>
       </c>
       <c r="T73" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2022.0254666666669</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X73" s="7">
+        <f t="shared" si="5"/>
+        <v>47745.326571427046</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>78</v>
       </c>
@@ -5252,7 +5703,7 @@
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4597.2424000000001</v>
       </c>
       <c r="M74" s="8">
@@ -5268,11 +5719,15 @@
         <v>3714.6079</v>
       </c>
       <c r="T74" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3431.4943666666672</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X74" s="7">
+        <f t="shared" si="5"/>
+        <v>56582.641366043223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>79</v>
       </c>
@@ -5290,7 +5745,7 @@
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4570.6173666666664</v>
       </c>
       <c r="M75" s="8">
@@ -5306,11 +5761,15 @@
         <v>4329.0267000000003</v>
       </c>
       <c r="T75" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3741.0529999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X75" s="7">
+        <f t="shared" si="5"/>
+        <v>67055.679243678067</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>80</v>
       </c>
@@ -5328,7 +5787,7 @@
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4621.3848333333335</v>
       </c>
       <c r="M76" s="8">
@@ -5344,11 +5803,15 @@
         <v>3731.9254000000001</v>
       </c>
       <c r="T76" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3913.7431000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X76" s="7">
+        <f t="shared" si="5"/>
+        <v>79467.200722260357</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>81</v>
       </c>
@@ -5366,7 +5829,7 @@
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4817.8294333333333</v>
       </c>
       <c r="M77" s="8">
@@ -5382,11 +5845,15 @@
         <v>4445.9654</v>
       </c>
       <c r="T77" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4111.4213000000009</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X77" s="7">
+        <f t="shared" si="5"/>
+        <v>94176.005102914249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>82</v>
       </c>
@@ -5404,7 +5871,7 @@
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6204.6364666666668</v>
       </c>
       <c r="M78" s="8">
@@ -5420,11 +5887,15 @@
         <v>6086.6214</v>
       </c>
       <c r="T78" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5982.5877333333337</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X78" s="7">
+        <f t="shared" si="5"/>
+        <v>111607.30284362139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>83</v>
       </c>
@@ -5442,7 +5913,7 @@
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6148.5128333333341</v>
       </c>
       <c r="M79" s="8">
@@ -5458,11 +5929,15 @@
         <v>7901.1374000000005</v>
       </c>
       <c r="T79" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5300.7943333333342</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X79" s="7">
+        <f t="shared" si="5"/>
+        <v>132265.00778426358</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>84</v>
       </c>
@@ -5480,7 +5955,7 @@
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7705.309166666666</v>
       </c>
       <c r="M80" s="8">
@@ -5496,11 +5971,15 @@
         <v>7746.7485000000006</v>
       </c>
       <c r="T80" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8146.7333000000008</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X80" s="7">
+        <f t="shared" si="5"/>
+        <v>156746.30457366255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>85</v>
       </c>
@@ -5518,7 +5997,7 @@
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8224.8828666666668</v>
       </c>
       <c r="M81" s="8">
@@ -5534,11 +6013,15 @@
         <v>7829.6559999999999</v>
       </c>
       <c r="T81" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7245.6247666666668</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X81" s="7">
+        <f t="shared" si="5"/>
+        <v>185758.91242205526</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>86</v>
       </c>
@@ -5556,7 +6039,7 @@
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8009.7766999999994</v>
       </c>
       <c r="M82" s="8">
@@ -5572,11 +6055,15 @@
         <v>9235.3381000000008</v>
       </c>
       <c r="T82" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9056.9999333333344</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X82" s="7">
+        <f t="shared" si="5"/>
+        <v>220141.54424934811</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>87</v>
       </c>
@@ -5594,7 +6081,7 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8977.9996666666684</v>
       </c>
       <c r="M83" s="8">
@@ -5610,11 +6097,15 @@
         <v>9165.0113000000001</v>
       </c>
       <c r="T83" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8059.0979333333335</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X83" s="7">
+        <f t="shared" si="5"/>
+        <v>260888.15267381928</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>88</v>
       </c>
@@ -5632,7 +6123,7 @@
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8097.0034000000005</v>
       </c>
       <c r="M84" s="8">
@@ -5648,11 +6139,15 @@
         <v>9491.2837</v>
       </c>
       <c r="T84" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7925.8743000000004</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X84" s="7">
+        <f t="shared" si="5"/>
+        <v>309176.66375804646</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>89</v>
       </c>
@@ -5670,7 +6165,7 @@
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11328.011333333334</v>
       </c>
       <c r="M85" s="8">
@@ -5686,11 +6181,15 @@
         <v>10063.2011</v>
       </c>
       <c r="T85" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11739.0458</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X85" s="7">
+        <f t="shared" si="5"/>
+        <v>366403.02916349703</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>90</v>
       </c>
@@ -5708,7 +6207,7 @@
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11733.0864</v>
       </c>
       <c r="M86" s="8">
@@ -5724,11 +6223,15 @@
         <v>14206.179400000001</v>
       </c>
       <c r="T86" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11863.429066666666</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X86" s="7">
+        <f t="shared" si="5"/>
+        <v>434221.58111275872</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>91</v>
       </c>
@@ -5746,7 +6249,7 @@
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12626.781600000002</v>
       </c>
       <c r="M87" s="8">
@@ -5762,11 +6265,15 @@
         <v>24148.745300000002</v>
       </c>
       <c r="T87" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16188.335000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X87" s="7">
+        <f t="shared" si="5"/>
+        <v>514592.85676355322</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>92</v>
       </c>
@@ -5784,7 +6291,7 @@
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13531.0394</v>
       </c>
       <c r="M88" s="8">
@@ -5800,11 +6307,15 @@
         <v>16751.726200000001</v>
       </c>
       <c r="T88" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14805.121233333333</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X88" s="7">
+        <f t="shared" si="5"/>
+        <v>609840.27452866384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>93</v>
       </c>
@@ -5822,7 +6333,7 @@
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14980.6175</v>
       </c>
       <c r="M89" s="8">
@@ -5838,11 +6349,15 @@
         <v>33549.590499999998</v>
       </c>
       <c r="T89" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23578.291833333333</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X89" s="7">
+        <f t="shared" si="5"/>
+        <v>722717.30077295075</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>94</v>
       </c>
@@ -5860,7 +6375,7 @@
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17367.322733333334</v>
       </c>
       <c r="M90" s="8">
@@ -5876,11 +6391,15 @@
         <v>24155.448500000002</v>
       </c>
       <c r="T90" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22537.122233333332</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X90" s="7">
+        <f t="shared" si="5"/>
+        <v>856487.04858043673</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>95</v>
       </c>
@@ -5898,7 +6417,7 @@
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17100.093800000002</v>
       </c>
       <c r="M91" s="8">
@@ -5914,11 +6433,15 @@
         <v>21723.638200000001</v>
       </c>
       <c r="T91" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21097.746933333332</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X91" s="7">
+        <f t="shared" si="5"/>
+        <v>1015016.6096777671</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>96</v>
       </c>
@@ -5936,7 +6459,7 @@
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14620.767500000002</v>
       </c>
       <c r="M92" s="8">
@@ -5952,11 +6475,15 @@
         <v>31753.7382</v>
       </c>
       <c r="T92" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25732.2592</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X92" s="7">
+        <f t="shared" si="5"/>
+        <v>1202888.8465147554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>97</v>
       </c>
@@ -5974,7 +6501,7 @@
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20435.423733333333</v>
       </c>
       <c r="M93" s="8">
@@ -5990,11 +6517,15 @@
         <v>26369.366400000003</v>
       </c>
       <c r="T93" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23068.417799999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X93" s="7">
+        <f t="shared" si="5"/>
+        <v>1425534.8762508945</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>98</v>
       </c>
@@ -6012,7 +6543,7 @@
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24089.057100000002</v>
       </c>
       <c r="M94" s="8">
@@ -6028,11 +6559,15 @@
         <v>40050.725700000003</v>
       </c>
       <c r="T94" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33247.050233333335</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X94" s="7">
+        <f t="shared" si="5"/>
+        <v>1689391.0765700378</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>99</v>
       </c>
@@ -6050,7 +6585,7 @@
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22900.841766666668</v>
       </c>
       <c r="M95" s="8">
@@ -6066,8 +6601,12 @@
         <v>32643.087900000002</v>
       </c>
       <c r="T95" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29545.360766666668</v>
+      </c>
+      <c r="X95" s="7">
+        <f t="shared" si="5"/>
+        <v>2002085.1521363682</v>
       </c>
     </row>
   </sheetData>
